--- a/Product-backlog-template.xlsx
+++ b/Product-backlog-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atiqb\Documents\GitHub\PROG5001A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0143023C-85F5-46EE-AEE6-C6B90FF5B2C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3027BBB5-D1FE-4F52-8D71-5DB2B6803E6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Week 9</t>
   </si>
@@ -67,9 +67,6 @@
     <t>User stories</t>
   </si>
   <si>
-    <t>the game board looks like …</t>
-  </si>
-  <si>
     <t>Build the game logic</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>to create the snake game</t>
-  </si>
-  <si>
     <t>As a user, I want:</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>Your name and student ID</t>
-  </si>
-  <si>
     <t>Developer</t>
   </si>
   <si>
@@ -143,6 +134,30 @@
   </si>
   <si>
     <t>Removed all the errors and added login accounts.</t>
+  </si>
+  <si>
+    <t>To create the snake game</t>
+  </si>
+  <si>
+    <t>The game board looks like …</t>
+  </si>
+  <si>
+    <t>Muhammad Atiq 23811395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declared private and public funcions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To move snake in different directions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To customize the snake colour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To customize the prey colour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To calculate score </t>
   </si>
 </sst>
 </file>
@@ -305,13 +320,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +644,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,40 +661,40 @@
       <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="34"/>
+      <c r="B2" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="35"/>
       <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="35"/>
+        <v>31</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="36"/>
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -691,14 +706,14 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>12</v>
@@ -709,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,26 +732,40 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="8">
         <v>3</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="8">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -774,7 +803,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -819,10 +848,10 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -835,7 +864,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>6</v>
@@ -844,13 +873,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" s="31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>0</v>
@@ -876,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -898,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -916,9 +945,11 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="8">
+        <v>2.1</v>
+      </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -933,14 +964,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="9">
         <v>2</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -951,11 +984,11 @@
       <c r="A11" s="13">
         <v>3.1</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>36</v>
+      <c r="B11" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -965,13 +998,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -981,11 +1014,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>39</v>
+      </c>
       <c r="D13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1038,7 +1073,7 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1048,11 +1083,11 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6"/>
       <c r="D19" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1088,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E25" s="9">
         <v>3</v>
@@ -1102,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E27" s="8">
         <v>4</v>
